--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
@@ -393,7 +393,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.900625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.070625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
@@ -393,7 +393,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.070625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.160625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
@@ -393,7 +393,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.160625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.770625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
@@ -393,7 +393,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.770625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.903622" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
@@ -393,7 +393,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.920625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.970625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
@@ -397,17 +397,17 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">
-      <x:c r="B2" s="1" t="n">
+      <x:c r="B2" s="1">
         <x:v>123456.789</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="B3" s="2" t="n">
+      <x:c r="B3" s="2">
         <x:v>12.345</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="B4" s="3" t="n">
+      <x:c r="B4" s="3">
         <x:v>12.345</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="$ #,##0.00"/>
-    <x:numFmt numFmtId="166" formatCode="0000"/>
+    <x:numFmt numFmtId="164" formatCode="$ #,##0.00"/>
+    <x:numFmt numFmtId="165" formatCode="0000"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -64,10 +64,10 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -79,11 +79,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
@@ -393,7 +393,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.970625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleNumberFormat.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Style NumberFormat" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Style NumberFormat" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
